--- a/Employee_Reports35/Lemuel Celeste Anacleto Q0150.xlsx
+++ b/Employee_Reports35/Lemuel Celeste Anacleto Q0150.xlsx
@@ -572,11 +572,11 @@
         </is>
       </c>
       <c r="H3" s="3" t="n">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="I3" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J3" s="3" t="inlineStr">
@@ -621,11 +621,11 @@
         </is>
       </c>
       <c r="H4" s="3" t="n">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="I4" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J4" s="3" t="inlineStr">
@@ -670,11 +670,11 @@
         </is>
       </c>
       <c r="H5" s="4" t="n">
-        <v>-28</v>
+        <v>-29</v>
       </c>
       <c r="I5" s="4" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J5" s="4" t="inlineStr">
@@ -719,11 +719,11 @@
         </is>
       </c>
       <c r="H6" s="3" t="n">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="I6" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J6" s="3" t="inlineStr">
@@ -768,11 +768,11 @@
         </is>
       </c>
       <c r="H7" s="3" t="n">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="I7" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J7" s="3" t="inlineStr">
@@ -805,11 +805,11 @@
         </is>
       </c>
       <c r="H8" s="3" t="n">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="I8" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J8" s="3" t="inlineStr">
@@ -854,11 +854,11 @@
         </is>
       </c>
       <c r="H9" s="3" t="n">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="I9" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J9" s="3" t="inlineStr">
@@ -903,11 +903,11 @@
         </is>
       </c>
       <c r="H10" s="3" t="n">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="I10" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J10" s="3" t="inlineStr">
@@ -952,11 +952,11 @@
         </is>
       </c>
       <c r="H11" s="3" t="n">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="I11" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J11" s="3" t="inlineStr">
@@ -1001,11 +1001,11 @@
         </is>
       </c>
       <c r="H12" s="3" t="n">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="I12" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J12" s="3" t="inlineStr">
@@ -1050,11 +1050,11 @@
         </is>
       </c>
       <c r="H13" s="3" t="n">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="I13" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J13" s="3" t="inlineStr">
@@ -1099,11 +1099,11 @@
         </is>
       </c>
       <c r="H14" s="3" t="n">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="I14" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J14" s="3" t="inlineStr">
@@ -1148,11 +1148,11 @@
         </is>
       </c>
       <c r="H15" s="3" t="n">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="I15" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J15" s="3" t="inlineStr">
@@ -1185,11 +1185,11 @@
         </is>
       </c>
       <c r="H16" s="3" t="n">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="I16" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J16" s="3" t="inlineStr">

--- a/Employee_Reports35/Lemuel Celeste Anacleto Q0150.xlsx
+++ b/Employee_Reports35/Lemuel Celeste Anacleto Q0150.xlsx
@@ -572,11 +572,11 @@
         </is>
       </c>
       <c r="H3" s="3" t="n">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="I3" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J3" s="3" t="inlineStr">
@@ -612,20 +612,20 @@
       </c>
       <c r="F4" s="3" t="inlineStr">
         <is>
-          <t>15-Aug-2025</t>
+          <t>20-Oct-2025</t>
         </is>
       </c>
       <c r="G4" s="3" t="inlineStr">
         <is>
-          <t>15-Aug-2027</t>
+          <t>20-Oct-2027</t>
         </is>
       </c>
       <c r="H4" s="3" t="n">
-        <v>649</v>
+        <v>714</v>
       </c>
       <c r="I4" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J4" s="3" t="inlineStr">
@@ -670,11 +670,11 @@
         </is>
       </c>
       <c r="H5" s="4" t="n">
-        <v>-29</v>
+        <v>-30</v>
       </c>
       <c r="I5" s="4" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J5" s="4" t="inlineStr">
@@ -719,11 +719,11 @@
         </is>
       </c>
       <c r="H6" s="3" t="n">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="I6" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J6" s="3" t="inlineStr">
@@ -768,11 +768,11 @@
         </is>
       </c>
       <c r="H7" s="3" t="n">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="I7" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J7" s="3" t="inlineStr">
@@ -805,11 +805,11 @@
         </is>
       </c>
       <c r="H8" s="3" t="n">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="I8" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J8" s="3" t="inlineStr">
@@ -854,11 +854,11 @@
         </is>
       </c>
       <c r="H9" s="3" t="n">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="I9" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J9" s="3" t="inlineStr">
@@ -903,11 +903,11 @@
         </is>
       </c>
       <c r="H10" s="3" t="n">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="I10" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J10" s="3" t="inlineStr">
@@ -952,11 +952,11 @@
         </is>
       </c>
       <c r="H11" s="3" t="n">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="I11" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J11" s="3" t="inlineStr">
@@ -1001,11 +1001,11 @@
         </is>
       </c>
       <c r="H12" s="3" t="n">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="I12" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J12" s="3" t="inlineStr">
@@ -1050,11 +1050,11 @@
         </is>
       </c>
       <c r="H13" s="3" t="n">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="I13" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J13" s="3" t="inlineStr">
@@ -1099,11 +1099,11 @@
         </is>
       </c>
       <c r="H14" s="3" t="n">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="I14" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J14" s="3" t="inlineStr">
@@ -1148,11 +1148,11 @@
         </is>
       </c>
       <c r="H15" s="3" t="n">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="I15" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J15" s="3" t="inlineStr">
@@ -1185,11 +1185,11 @@
         </is>
       </c>
       <c r="H16" s="3" t="n">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="I16" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J16" s="3" t="inlineStr">
